--- a/inData.xlsx
+++ b/inData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Dropbox\School\EGR115\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCE71C4-E2C9-43B9-A744-5E770F92A187}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B5B31F-46AE-4757-A991-342CDC36E810}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B1" sqref="B1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -422,7 +422,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>29.18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>100000</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>8000</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,7 +550,12 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
